--- a/DDAf_2020_tableau_annexe_Tab22.xlsx
+++ b/DDAf_2020_tableau_annexe_Tab22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="173">
   <si>
     <t>Tableau 22: Apports financiers extérieurs</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Entrées des investissements de portefeuille en % du PIB, 2018</t>
   </si>
   <si>
-    <t>Aide public au développement (APD) entrant en % du PIB, 2018</t>
+    <t>Entrées nettes d'aide publique au développement (APD) en % du PIB, 2018</t>
   </si>
   <si>
     <t>Entrées d’investissements directs étrangers (IDE) en % du PIB, 2018</t>
@@ -45,22 +45,22 @@
     <t>Entrées de transferts des migrants en % du PIB, 2018</t>
   </si>
   <si>
-    <t>Total des apports extérieurs en % du PIB, 2018</t>
-  </si>
-  <si>
-    <t>Entrées des investissements de portefeuille  (en millions USD), 2018</t>
-  </si>
-  <si>
-    <t>Aide public au développement (APD) entrant  (en millions USD), 2018</t>
-  </si>
-  <si>
-    <t>Entrées d’investissements directs étrangers (IDE)  (en millions USD), 2018</t>
-  </si>
-  <si>
-    <t>Entrées de transferts des migrants  (en millions USD), 2018</t>
-  </si>
-  <si>
-    <t>Total des apports extérieurs (en millions USD), 2018</t>
+    <t>Entrées financières totales en % du PIB, 2018</t>
+  </si>
+  <si>
+    <t>Entrées des investissements de portefeuille (millions USD), 2018</t>
+  </si>
+  <si>
+    <t>Entrées nettes d'aide publique au développement (APD) (millions USD), 2018</t>
+  </si>
+  <si>
+    <t>Entrées d’investissements directs étrangers (IDE) (millions USD), 2018</t>
+  </si>
+  <si>
+    <t>Entrées de transferts des migrants (millions USD), 2018</t>
+  </si>
+  <si>
+    <t>Entrées financières totales (millions USD), 2018</t>
   </si>
   <si>
     <t>AGO</t>
@@ -516,7 +516,7 @@
     <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
   </si>
   <si>
-    <t>RDM = "Reste du monde" ; LAC = "Pays d'Amérique latine et des Caraîbes"</t>
+    <t>RDM = "Reste du monde" ; LAC = "Pays d'Amérique latine et des Caraïbes"</t>
   </si>
   <si>
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
@@ -525,7 +525,97 @@
     <t>Source : Comité d'aide au développement de l'OCDE (mise à jour 28/10/2020), base de données sur les IDE du Centre de données en ligne UNCTADStat (récupérés le 05/11/2020), données de la Banque mondiale sur la migration et les remises (octobre 2020), base de données des Perspectives de l'économie mondiale du FMI octobre 2020.</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les séries chronologiques historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format csv compressé, y compris les données historiques remontant à 2000, cliquez ici.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le premier des deux fichiers de données.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le deuxième des deux fichiers de données</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -538,7 +628,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +751,15 @@
       <i/>
       <u/>
       <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -839,9 +938,11 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -878,7 +979,9 @@
     <xf numFmtId="37" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -924,7 +1027,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -943,7 +1048,9 @@
     <xf numFmtId="37" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -962,7 +1069,9 @@
     <xf numFmtId="37" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1029,15 +1138,21 @@
     <xf numFmtId="37" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1321,15 +1436,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="69" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="74" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="76" customWidth="1"/>
     <col min="4" max="12" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4938,79 +5053,208 @@
       <c r="L98" s="48"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="B99" s="69"/>
-      <c r="C99" s="70"/>
-      <c r="D99" s="70"/>
-      <c r="E99" s="70"/>
-      <c r="F99" s="70"/>
-      <c r="G99" s="70"/>
-      <c r="H99" s="71"/>
-      <c r="I99" s="72"/>
-      <c r="J99" s="72"/>
-      <c r="K99" s="72"/>
-      <c r="L99" s="71"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="71"/>
+      <c r="E99" s="71"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="71"/>
+      <c r="H99" s="72"/>
+      <c r="I99" s="73"/>
+      <c r="J99" s="73"/>
+      <c r="K99" s="73"/>
+      <c r="L99" s="72"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="B100" s="69"/>
-      <c r="C100" s="70"/>
-      <c r="D100" s="70"/>
-      <c r="E100" s="70"/>
-      <c r="F100" s="70"/>
-      <c r="G100" s="70"/>
-      <c r="H100" s="71"/>
-      <c r="I100" s="72"/>
-      <c r="J100" s="72"/>
-      <c r="K100" s="72"/>
-      <c r="L100" s="71"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="71"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="71"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="72"/>
+      <c r="I100" s="73"/>
+      <c r="J100" s="73"/>
+      <c r="K100" s="73"/>
+      <c r="L100" s="72"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="B101" s="69"/>
-      <c r="C101" s="70"/>
-      <c r="D101" s="70"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="70"/>
-      <c r="H101" s="71"/>
-      <c r="I101" s="72"/>
-      <c r="J101" s="72"/>
-      <c r="K101" s="72"/>
-      <c r="L101" s="71"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="71"/>
+      <c r="D101" s="71"/>
+      <c r="E101" s="71"/>
+      <c r="F101" s="71"/>
+      <c r="G101" s="71"/>
+      <c r="H101" s="72"/>
+      <c r="I101" s="73"/>
+      <c r="J101" s="73"/>
+      <c r="K101" s="73"/>
+      <c r="L101" s="72"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="A102" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B102" s="69"/>
-      <c r="C102" s="70"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
-      <c r="G102" s="70"/>
-      <c r="H102" s="71"/>
-      <c r="I102" s="72"/>
-      <c r="J102" s="72"/>
-      <c r="K102" s="72"/>
-      <c r="L102" s="71"/>
+      <c r="B102" s="70"/>
+      <c r="C102" s="71"/>
+      <c r="D102" s="71"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="72"/>
+      <c r="I102" s="73"/>
+      <c r="J102" s="73"/>
+      <c r="K102" s="73"/>
+      <c r="L102" s="72"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B103" s="70"/>
+      <c r="C103" s="71"/>
+      <c r="D103" s="71"/>
+      <c r="E103" s="71"/>
+      <c r="F103" s="71"/>
+      <c r="G103" s="71"/>
+      <c r="H103" s="72"/>
+      <c r="I103" s="73"/>
+      <c r="J103" s="73"/>
+      <c r="K103" s="73"/>
+      <c r="L103" s="72"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B104" s="70"/>
+      <c r="C104" s="71"/>
+      <c r="D104" s="71"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="71"/>
+      <c r="H104" s="72"/>
+      <c r="I104" s="73"/>
+      <c r="J104" s="73"/>
+      <c r="K104" s="73"/>
+      <c r="L104" s="72"/>
     </row>
     <row r="105" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B105" s="73" t="s">
+      <c r="B105" s="74" t="s">
         <v>167</v>
       </c>
+      <c r="C105" s="71"/>
+      <c r="D105" s="71"/>
+      <c r="E105" s="71"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="71"/>
+      <c r="H105" s="72"/>
+      <c r="I105" s="73"/>
+      <c r="J105" s="73"/>
+      <c r="K105" s="73"/>
+      <c r="L105" s="72"/>
+    </row>
+    <row r="106" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="74"/>
+      <c r="C106" s="71"/>
+      <c r="D106" s="71"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="72"/>
+      <c r="I106" s="73"/>
+      <c r="J106" s="73"/>
+      <c r="K106" s="73"/>
+      <c r="L106" s="72"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B107" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="C107" s="71"/>
+      <c r="D107" s="71"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="72"/>
+      <c r="I107" s="73"/>
+      <c r="J107" s="73"/>
+      <c r="K107" s="73"/>
+      <c r="L107" s="72"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B108" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="C108" s="71"/>
+      <c r="D108" s="71"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="72"/>
+      <c r="I108" s="73"/>
+      <c r="J108" s="73"/>
+      <c r="K108" s="73"/>
+      <c r="L108" s="72"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B109" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="C109" s="71"/>
+      <c r="D109" s="71"/>
+      <c r="E109" s="71"/>
+      <c r="F109" s="71"/>
+      <c r="G109" s="71"/>
+      <c r="H109" s="72"/>
+      <c r="I109" s="73"/>
+      <c r="J109" s="73"/>
+      <c r="K109" s="73"/>
+      <c r="L109" s="72"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B110" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="C110" s="71"/>
+      <c r="D110" s="71"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="71"/>
+      <c r="H110" s="72"/>
+      <c r="I110" s="73"/>
+      <c r="J110" s="73"/>
+      <c r="K110" s="73"/>
+      <c r="L110" s="72"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B111" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="C111" s="71"/>
+      <c r="D111" s="71"/>
+      <c r="E111" s="71"/>
+      <c r="F111" s="71"/>
+      <c r="G111" s="71"/>
+      <c r="H111" s="72"/>
+      <c r="I111" s="73"/>
+      <c r="J111" s="73"/>
+      <c r="K111" s="73"/>
+      <c r="L111" s="72"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B105" r:id="rId1"/>
+    <hyperlink ref="B105" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les séries chronologiques historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020."/>
+    <hyperlink ref="B107" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails."/>
+    <hyperlink ref="B108" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs."/>
+    <hyperlink ref="B109" r:id="rId2"/>
+    <hyperlink ref="B111" r:id="rId3"/>
+    <hyperlink ref="B110" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>